--- a/Lab5/Q2_PartC_Table_ONERAM6.xlsx
+++ b/Lab5/Q2_PartC_Table_ONERAM6.xlsx
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>196855.2440593895</v>
+        <v>98392.88782225478</v>
       </c>
       <c r="C2">
-        <v>497059.4912499585</v>
+        <v>248442.0417511934</v>
       </c>
       <c r="D2">
         <v>0.02671390476190476</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>389638.0920382346</v>
+        <v>194747.4454653715</v>
       </c>
       <c r="C3">
-        <v>983836.1823965424</v>
+        <v>491737.2998000632</v>
       </c>
       <c r="D3">
         <v>0.08278171428571429</v>
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>587050.1387826627</v>
+        <v>293417.174665808</v>
       </c>
       <c r="C4">
-        <v>1482301.600426223</v>
+        <v>740878.3660311654</v>
       </c>
       <c r="D4">
         <v>0.1579150952380952</v>
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>785222.4137410864</v>
+        <v>392490.0176950652</v>
       </c>
       <c r="C5">
-        <v>1982686.594696243</v>
+        <v>991037.2946800396</v>
       </c>
       <c r="D5">
         <v>0.253616380952381</v>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>972020.1081202099</v>
+        <v>485895.1392620457</v>
       </c>
       <c r="C6">
-        <v>2454350.77300353</v>
+        <v>1226885.226636665</v>
       </c>
       <c r="D6">
         <v>0.3728082857142858</v>
